--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1988194-E12F-4463-B1EF-E680BA27AC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.2.非同期処理方式" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$13:$Q$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$44</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$44</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$44</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$13:$Q$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$42</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -80,38 +92,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面からのリクエストに基づいて、業務処理の遅延実行</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（非同期処理）を予約する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面から遅延実行（非同期処理）の結果を参照する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務処理の実行結果待ちである旨を表示する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実行結果に基づいて連携DBが更新される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理結果を専用画面またはメッセージ欄に表示する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理内容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理結果</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理方式</t>
     <rPh sb="0" eb="3">
       <t>ヒドウキ</t>
@@ -129,31 +109,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchは、下記の３階段で一連の非同期処理方式（オンラインと常駐バッチ組み合わせ方式）を採用する。</t>
-    <rPh sb="10" eb="12">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カイダン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イチレン</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ヒドウキ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>サイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理のエラー時対応</t>
     <rPh sb="0" eb="3">
       <t>ヒドウキ</t>
@@ -194,13 +149,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>手段</t>
-    <rPh sb="0" eb="2">
-      <t>シュダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メール送信</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -212,26 +160,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>端末の操作で発生するリクエストに基づいて、オンライン処理と常駐バッチ処理を</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>組み合わせ処理方式である。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・オンライン処理の応答性を確保するため、即時処理を行う必要がない処理をバッチ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理に切り出す。（負荷の平準化）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・データをまとめて処理することで、処理のスループットを向上できる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理方式概要</t>
     <rPh sb="0" eb="3">
       <t>ヒドウキ</t>
@@ -239,10 +167,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オンラインと常駐バッチ組み合わせ方式</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理方式詳細</t>
     <rPh sb="0" eb="3">
       <t>ヒドウキ</t>
@@ -308,25 +232,98 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（非同期処理）する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>常駐バッチの仕組みにより、予約した業務処理を遅延実行</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="4">
       <t>ヨウケンテイギ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・メール送信要求を出すアプリケーションで、メール送信を業務トランザクションに含めることができる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下2つのメリットがあるため</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・メールサーバやネットワークの障害によりメール送信が失敗しても、アプリケーションの処理に影響を与えない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>具体的な処理の流れを以下で説明する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchでは、画面オンライン実行制御基盤と常駐起動バッチ実行制御基盤を組み合わせることで非同期処理方式を実現できる。</t>
+    <rPh sb="39" eb="40">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理方式</t>
+    <rPh sb="0" eb="4">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチ</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理内容</t>
+    <rPh sb="0" eb="4">
+      <t>ショリナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面からのリクエストをオンライン処理で受け付け、業務処理の非同期実行を予約する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この時点では業務処理は実行せず、すぐにレスポンスを返却する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このとき画面には、業務処理の非同期実行が予約され、結果は後で確認できる旨を表示する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチの仕組みにより、予約された業務処理を実行する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面から常駐バッチが実行した業務処理の結果を参照する。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -663,36 +660,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -757,14 +724,44 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -777,12 +774,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -824,7 +824,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,9 +857,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -892,6 +909,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1067,12 +1101,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI475"/>
+  <dimension ref="A1:AI472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1088,43 +1122,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="56"/>
+      <c r="R1" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="46"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1133,43 +1167,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="62"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="65"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="55"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="50"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="40"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1178,44 +1212,44 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="68"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="58"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="50"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>9</v>
@@ -1228,7 +1262,7 @@
         <v>3.2.</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1238,48 +1272,46 @@
         <v>3.2.1.</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="14"/>
       <c r="E10" s="18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="14"/>
       <c r="E11" s="18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="14"/>
       <c r="E12" s="20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="14"/>
       <c r="E13" s="25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="25" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="26" t="s">
-        <v>10</v>
-      </c>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
@@ -1301,24 +1333,22 @@
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="14"/>
       <c r="E14" s="15" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="J14" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
@@ -1344,16 +1374,16 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="J15" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
@@ -1379,16 +1409,16 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="J16" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
@@ -1409,210 +1439,191 @@
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="14"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="24"/>
     </row>
     <row r="18" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="14"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="21"/>
     </row>
     <row r="19" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="14"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="21"/>
     </row>
     <row r="20" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="14"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="24"/>
-    </row>
-    <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="14" t="str">
+      <c r="D20" s="14" t="str">
         <f>$C$7&amp;"2."</f>
         <v>3.2.2.</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E20" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="36"/>
+      <c r="E21" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="36"/>
+      <c r="E22" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="27"/>
+    </row>
+    <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="E24" s="66">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="36"/>
-      <c r="E24" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="21"/>
     </row>
     <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="27"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="21"/>
     </row>
     <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
-      <c r="E26" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="20"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -1620,9 +1631,7 @@
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="19" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
@@ -1644,155 +1653,159 @@
     <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
-      <c r="E27" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="21"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="24"/>
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="24"/>
+      <c r="E28" s="66">
+        <v>2</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="21"/>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
-      <c r="E29" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="21"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="33"/>
     </row>
     <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
-      <c r="E30" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="21"/>
+      <c r="E30" s="69">
+        <v>3</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="35"/>
     </row>
     <row r="31" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="31"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="32"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
@@ -1800,7 +1813,7 @@
       <c r="N31" s="32"/>
       <c r="O31" s="32"/>
       <c r="P31" s="32"/>
-      <c r="Q31" s="31"/>
+      <c r="Q31" s="32"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
@@ -1822,203 +1835,119 @@
     <row r="32" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
-      <c r="E32" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="35"/>
     </row>
     <row r="33" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="35"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
     </row>
     <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="33"/>
+      <c r="D34" s="14" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>3.2.3.</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
     </row>
     <row r="35" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
+      <c r="E35" s="14" t="str">
+        <f>$D$34&amp;"1."</f>
+        <v>3.2.3.1.</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
+      <c r="E36" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
-      <c r="D37" s="14" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>3.2.3.</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="E38" s="14" t="str">
-        <f>$D$37&amp;"1."</f>
-        <v>3.2.3.1.</v>
+        <f>$D$34&amp;"2."</f>
+        <v>3.2.3.2.</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
-      <c r="E39" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="29"/>
+      <c r="E39" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
@@ -2027,29 +1956,10 @@
     <row r="41" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
-      <c r="E41" s="14" t="str">
-        <f>$D$37&amp;"2."</f>
-        <v>3.2.3.2.</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="E42" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-    </row>
-    <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-    </row>
+    </row>
+    <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2478,12 +2388,8 @@
     <row r="470" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="471" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="472" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J14:P20"/>
+  <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1988194-E12F-4463-B1EF-E680BA27AC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FF8C0E-507B-4A9E-BB04-C41A1828D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,38 +200,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ディレード予約処理、または、結果参照処理はエラーが発生する対応方針は、【3.1.10.エラー処理】を参照。</t>
-    <rPh sb="29" eb="31">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ホウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>常駐バッチ処理でエラーが発生した場合、常駐バッチのエラー処理方針【4.2.5.エラー処理】を参照。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ホウシン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="4">
       <t>ヨウケンテイギ</t>
@@ -317,6 +285,38 @@
   </si>
   <si>
     <t>画面から常駐バッチが実行した業務処理の結果を参照する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディレード予約処理、または、結果参照処理でエラーが発生した場合の対応方針は、【3.1.10.エラー処理】を参照。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチ処理でエラーが発生した場合の対応方針は、【4.2.5.エラー処理】を参照。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -660,6 +660,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -724,36 +754,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,43 +1122,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="46"/>
+      <c r="R1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="56"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="40"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="50"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1167,43 +1167,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="55"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="65"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="40"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="50"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1212,39 +1212,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="58"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="68"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="50"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1339,15 +1339,15 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
+      <c r="J14" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
@@ -1374,15 +1374,15 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
+      <c r="J15" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
@@ -1409,15 +1409,15 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
+      <c r="J16" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
@@ -1444,13 +1444,13 @@
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
@@ -1488,13 +1488,13 @@
     <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="36"/>
       <c r="E21" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="36"/>
       <c r="E22" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1502,15 +1502,15 @@
       <c r="B23" s="30"/>
       <c r="D23" s="14"/>
       <c r="E23" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -1541,16 +1541,16 @@
     <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
-      <c r="E24" s="66">
+      <c r="E24" s="44">
         <v>1</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -1581,12 +1581,12 @@
     <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
-      <c r="E25" s="66"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="19"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
@@ -1617,12 +1617,12 @@
     <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
-      <c r="E26" s="66"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="19"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
@@ -1653,7 +1653,7 @@
     <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
-      <c r="E27" s="67"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="22"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
@@ -1687,16 +1687,16 @@
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
-      <c r="E28" s="66">
+      <c r="E28" s="44">
         <v>2</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
@@ -1727,7 +1727,7 @@
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
-      <c r="E29" s="68"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="31"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -1761,16 +1761,16 @@
     <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
-      <c r="E30" s="69">
+      <c r="E30" s="47">
         <v>3</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
@@ -1923,7 +1923,7 @@
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="E36" s="37" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -1946,7 +1946,7 @@
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="E39" s="18" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FF8C0E-507B-4A9E-BB04-C41A1828D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2D5A15-DE5C-4AD5-9C63-EE34A9028260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,13 +211,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以下2つのメリットがあるため</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・メールサーバやネットワークの障害によりメール送信が失敗しても、アプリケーションの処理に影響を与えない。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -316,6 +309,13 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下2つのメリットがあるため。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1340,7 +1340,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="41" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
@@ -1410,7 +1410,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
@@ -1488,13 +1488,13 @@
     <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="36"/>
       <c r="E21" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="36"/>
       <c r="E22" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1502,15 +1502,15 @@
       <c r="B23" s="30"/>
       <c r="D23" s="14"/>
       <c r="E23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>30</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -1545,12 +1545,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -1586,7 +1586,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
@@ -1622,7 +1622,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
@@ -1691,12 +1691,12 @@
         <v>2</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
@@ -1765,12 +1765,12 @@
         <v>3</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
@@ -1923,7 +1923,7 @@
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="E36" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -1946,7 +1946,7 @@
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="E39" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2D5A15-DE5C-4AD5-9C63-EE34A9028260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA7489C-9F1B-45CC-B609-F8F571F75950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,25 +126,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>非同期処理（画面・ディレード処理又はオンラインディレード処理）というものは、端末から要求が発生してもすぐには処理せず、一定量あるいは</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>マタ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>一定時間分をまとめて（バックグラウンドで実行される）処理する。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -316,6 +297,25 @@
     <t>以下2つのメリットがあるため。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期処理（画面・ディレード処理又はオンラインディレード処理）では、端末から要求が発生してもすぐには処理せず、一定量あるいは</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
@@ -1272,19 +1272,19 @@
         <v>3.2.1.</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="14"/>
       <c r="E10" s="18" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="14"/>
       <c r="E11" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1296,7 +1296,7 @@
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="14"/>
       <c r="E13" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -1333,14 +1333,14 @@
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="14"/>
       <c r="E14" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
@@ -1375,7 +1375,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
@@ -1410,7 +1410,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
@@ -1482,19 +1482,19 @@
         <v>3.2.2.</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="36"/>
       <c r="E21" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="36"/>
       <c r="E22" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1502,15 +1502,15 @@
       <c r="B23" s="30"/>
       <c r="D23" s="14"/>
       <c r="E23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>28</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>29</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -1545,12 +1545,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -1586,7 +1586,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
@@ -1622,7 +1622,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
@@ -1691,12 +1691,12 @@
         <v>2</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
@@ -1765,12 +1765,12 @@
         <v>3</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
@@ -1916,14 +1916,14 @@
         <v>3.2.3.1.</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="E36" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F36" s="29"/>
     </row>
@@ -1939,14 +1939,14 @@
         <v>3.2.3.2.</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="E39" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA7489C-9F1B-45CC-B609-F8F571F75950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.2.非同期処理方式" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$13:$Q$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$44</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$44</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$44</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$13:$Q$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$42</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -80,38 +92,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面からのリクエストに基づいて、業務処理の遅延実行</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（非同期処理）を予約する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面から遅延実行（非同期処理）の結果を参照する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務処理の実行結果待ちである旨を表示する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実行結果に基づいて連携DBが更新される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理結果を専用画面またはメッセージ欄に表示する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理内容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理結果</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理方式</t>
     <rPh sb="0" eb="3">
       <t>ヒドウキ</t>
@@ -129,31 +109,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchは、下記の３階段で一連の非同期処理方式（オンラインと常駐バッチ組み合わせ方式）を採用する。</t>
-    <rPh sb="10" eb="12">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カイダン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イチレン</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ヒドウキ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>サイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理のエラー時対応</t>
     <rPh sb="0" eb="3">
       <t>ヒドウキ</t>
@@ -171,33 +126,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>非同期処理（画面・ディレード処理又はオンラインディレード処理）というものは、端末から要求が発生してもすぐには処理せず、一定量あるいは</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>マタ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>一定時間分をまとめて（バックグラウンドで実行される）処理する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>手段</t>
-    <rPh sb="0" eb="2">
-      <t>シュダン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -212,26 +141,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>端末の操作で発生するリクエストに基づいて、オンライン処理と常駐バッチ処理を</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>組み合わせ処理方式である。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・オンライン処理の応答性を確保するため、即時処理を行う必要がない処理をバッチ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理に切り出す。（負荷の平準化）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・データをまとめて処理することで、処理のスループットを向上できる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理方式概要</t>
     <rPh sb="0" eb="3">
       <t>ヒドウキ</t>
@@ -239,10 +148,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オンラインと常駐バッチ組み合わせ方式</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理方式詳細</t>
     <rPh sb="0" eb="3">
       <t>ヒドウキ</t>
@@ -276,49 +181,141 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ディレード予約処理、または、結果参照処理はエラーが発生する対応方針は、【3.1.10.エラー処理】を参照。</t>
-    <rPh sb="29" eb="31">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ホウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>常駐バッチ処理でエラーが発生した場合、常駐バッチのエラー処理方針【4.2.5.エラー処理】を参照。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ホウシン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（非同期処理）する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>常駐バッチの仕組みにより、予約した業務処理を遅延実行</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="4">
       <t>ヨウケンテイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・メール送信要求を出すアプリケーションで、メール送信を業務トランザクションに含めることができる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・メールサーバやネットワークの障害によりメール送信が失敗しても、アプリケーションの処理に影響を与えない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>具体的な処理の流れを以下で説明する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchでは、画面オンライン実行制御基盤と常駐起動バッチ実行制御基盤を組み合わせることで非同期処理方式を実現できる。</t>
+    <rPh sb="39" eb="40">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理方式</t>
+    <rPh sb="0" eb="4">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチ</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理内容</t>
+    <rPh sb="0" eb="4">
+      <t>ショリナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面からのリクエストをオンライン処理で受け付け、業務処理の非同期実行を予約する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この時点では業務処理は実行せず、すぐにレスポンスを返却する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このとき画面には、業務処理の非同期実行が予約され、結果は後で確認できる旨を表示する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチの仕組みにより、予約された業務処理を実行する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面から常駐バッチが実行した業務処理の結果を参照する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディレード予約処理、または、結果参照処理でエラーが発生した場合の対応方針は、【3.1.10.エラー処理】を参照。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチ処理でエラーが発生した場合の対応方針は、【4.2.5.エラー処理】を参照。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下2つのメリットがあるため。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期処理（画面・ディレード処理又はオンラインディレード処理）では、端末から要求が発生してもすぐには処理せず、一定量あるいは</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -326,7 +323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -663,35 +660,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -762,9 +759,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -777,12 +774,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -824,7 +824,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,9 +857,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -892,6 +909,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1067,12 +1101,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI475"/>
+  <dimension ref="A1:AI472"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1104,7 +1138,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="54" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
@@ -1215,7 +1249,7 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>9</v>
@@ -1228,7 +1262,7 @@
         <v>3.2.</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1238,48 +1272,46 @@
         <v>3.2.1.</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="14"/>
       <c r="E10" s="18" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="14"/>
       <c r="E11" s="18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="14"/>
       <c r="E12" s="20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="14"/>
       <c r="E13" s="25" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="25" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="26" t="s">
-        <v>10</v>
-      </c>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
@@ -1301,24 +1333,22 @@
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="14"/>
       <c r="E14" s="15" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="J14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
@@ -1344,16 +1374,16 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="J15" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
@@ -1379,16 +1409,16 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="J16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
@@ -1409,210 +1439,191 @@
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="14"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="24"/>
     </row>
     <row r="18" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="14"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="21"/>
     </row>
     <row r="19" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="14"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="21"/>
     </row>
     <row r="20" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="14"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="24"/>
-    </row>
-    <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="14" t="str">
+      <c r="D20" s="14" t="str">
         <f>$C$7&amp;"2."</f>
         <v>3.2.2.</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="E20" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="36"/>
+      <c r="E21" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="36"/>
+      <c r="E22" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="27"/>
     </row>
     <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="36"/>
-      <c r="E24" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="E24" s="44">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="21"/>
     </row>
     <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="27"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="21"/>
     </row>
     <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
-      <c r="E26" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="20"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -1620,9 +1631,7 @@
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="19" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
@@ -1644,155 +1653,159 @@
     <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
-      <c r="E27" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="21"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="24"/>
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="24"/>
+      <c r="E28" s="44">
+        <v>2</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="21"/>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
-      <c r="E29" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="21"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="33"/>
     </row>
     <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
-      <c r="E30" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="21"/>
+      <c r="E30" s="47">
+        <v>3</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="35"/>
     </row>
     <row r="31" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="31"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="32"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
@@ -1800,7 +1813,7 @@
       <c r="N31" s="32"/>
       <c r="O31" s="32"/>
       <c r="P31" s="32"/>
-      <c r="Q31" s="31"/>
+      <c r="Q31" s="32"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
@@ -1822,203 +1835,119 @@
     <row r="32" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
-      <c r="E32" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="35"/>
     </row>
     <row r="33" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="35"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
     </row>
     <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="33"/>
+      <c r="D34" s="14" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>3.2.3.</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
     </row>
     <row r="35" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
+      <c r="E35" s="14" t="str">
+        <f>$D$34&amp;"1."</f>
+        <v>3.2.3.1.</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
+      <c r="E36" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
-      <c r="D37" s="14" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>3.2.3.</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="E38" s="14" t="str">
-        <f>$D$37&amp;"1."</f>
-        <v>3.2.3.1.</v>
+        <f>$D$34&amp;"2."</f>
+        <v>3.2.3.2.</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
-      <c r="E39" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="29"/>
+      <c r="E39" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
@@ -2027,29 +1956,10 @@
     <row r="41" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
-      <c r="E41" s="14" t="str">
-        <f>$D$37&amp;"2."</f>
-        <v>3.2.3.2.</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="E42" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-    </row>
-    <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-    </row>
+    </row>
+    <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2478,12 +2388,8 @@
     <row r="470" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="471" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="472" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J14:P20"/>
+  <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA7489C-9F1B-45CC-B609-F8F571F75950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C060D30-17A6-47B8-B8C2-FCA379E8720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="3.2.非同期処理方式" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$13:$Q$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$42</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$17:$Q$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -116,20 +116,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下記機能の場合に、非同期処理方式を選択する。</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一定時間分をまとめて（バックグラウンドで実行される）処理する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メール送信</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -200,16 +186,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchでは、画面オンライン実行制御基盤と常駐起動バッチ実行制御基盤を組み合わせることで非同期処理方式を実現できる。</t>
-    <rPh sb="39" eb="40">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -301,7 +277,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>非同期処理（画面・ディレード処理又はオンラインディレード処理）では、端末から要求が発生してもすぐには処理せず、一定量あるいは</t>
+    <t>非同期処理（画面・ディレード処理又はオンラインディレード処理）は、端末から要求が発生してもすぐには処理せず、一定量あるいは</t>
     <rPh sb="3" eb="5">
       <t>ショリ</t>
     </rPh>
@@ -316,6 +292,57 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムにおける非同期処理適用対象</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、下記機能で非同期処理方式を選択する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでの方針</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一定時間分をまとめて（バックグラウンドで実行する）処理する方式である。</t>
+    <rPh sb="29" eb="31">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchでは、画面オンライン実行制御基盤と常駐起動バッチ実行制御基盤を組み合わせることで非同期処理方式を実現できるので、</t>
+    <rPh sb="39" eb="40">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでもこの方法を採用する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1106,7 +1133,7 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI472"/>
+  <dimension ref="A1:AI476"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1138,7 +1165,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
@@ -1272,431 +1299,314 @@
         <v>3.2.1.</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="14"/>
       <c r="E10" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="14"/>
       <c r="E11" s="18" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="14"/>
-      <c r="E12" s="20" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="14"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="14" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>3.2.2.</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="27"/>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="14"/>
-      <c r="E14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="17"/>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="14"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="21"/>
+      <c r="E15" s="14" t="str">
+        <f>$D$13&amp;"1."</f>
+        <v>3.2.2.1.</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="14"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="21"/>
+      <c r="E16" s="20" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="14"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="24"/>
+      <c r="E17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="27"/>
     </row>
     <row r="18" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="17"/>
     </row>
     <row r="19" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="14"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="21"/>
     </row>
     <row r="20" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="14" t="str">
-        <f>$C$7&amp;"2."</f>
-        <v>3.2.2.</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="21"/>
     </row>
     <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="36"/>
-      <c r="E21" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="24"/>
     </row>
     <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="36"/>
-      <c r="E22" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="27"/>
+      <c r="E23" s="14" t="str">
+        <f>$D$13&amp;"2."</f>
+        <v>3.2.2.2.</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="E24" s="44">
-        <v>1</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="21"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="18" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="21"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="21"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="24"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="27"/>
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="E28" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
@@ -1727,240 +1637,382 @@
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="33"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="21"/>
     </row>
     <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
-      <c r="E30" s="47">
-        <v>3</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="35"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="33"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="24"/>
     </row>
     <row r="32" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
+      <c r="E32" s="44">
+        <v>2</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="21"/>
     </row>
     <row r="33" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="20"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="33"/>
     </row>
     <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
-      <c r="D34" s="14" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>3.2.3.</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
+      <c r="E34" s="47">
+        <v>3</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="35"/>
     </row>
     <row r="35" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
-      <c r="E35" s="14" t="str">
-        <f>$D$34&amp;"1."</f>
-        <v>3.2.3.1.</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="33"/>
     </row>
     <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
-      <c r="E36" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
-      <c r="E38" s="14" t="str">
-        <f>$D$34&amp;"2."</f>
-        <v>3.2.3.2.</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="D38" s="14" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>3.2.3.</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
-      <c r="E39" s="18" t="s">
-        <v>38</v>
+      <c r="E39" s="14" t="str">
+        <f>$D$38&amp;"1."</f>
+        <v>3.2.3.1.</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
+      <c r="E40" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
     </row>
-    <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="E42" s="14" t="str">
+        <f>$D$38&amp;"2."</f>
+        <v>3.2.3.2.</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="E43" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+    </row>
+    <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+    </row>
     <row r="46" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2388,6 +2440,10 @@
     <row r="470" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="471" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="472" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C060D30-17A6-47B8-B8C2-FCA379E8720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E972E5-8325-4EDB-94E8-362B69EDDB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="3.2.非同期処理方式" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$17:$Q$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$17:$Q$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -174,14 +174,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・メール送信要求を出すアプリケーションで、メール送信を業務トランザクションに含めることができる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・メールサーバやネットワークの障害によりメール送信が失敗しても、アプリケーションの処理に影響を与えない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>具体的な処理の流れを以下で説明する。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -270,13 +262,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以下2つのメリットがあるため。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理（画面・ディレード処理又はオンラインディレード処理）は、端末から要求が発生してもすぐには処理せず、一定量あるいは</t>
     <rPh sb="3" eb="5">
       <t>ショリ</t>
@@ -343,6 +328,108 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メール送信には以下のような特性がある。</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・メール送信のタイミングには遅延が許容される</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期処理方式ではメール送信を必要とする機能と実際のメール送信のトランザクションが分離されるため、</t>
+    <rPh sb="0" eb="7">
+      <t>ヒドウキショリホウシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記特性に良く適合する。</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウキトクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テキゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>したがって、メール送信には非同期処理方式を採用する。</t>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="20">
+      <t>ヒドウキショリホウシキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・メールを送信する必要がある機能そのものは、メール送信の失敗に影響されないようにすることが望ましい</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ノゾ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1133,7 +1220,7 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI476"/>
+  <dimension ref="A1:AI479"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1305,13 +1392,13 @@
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="14"/>
       <c r="E10" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="14"/>
       <c r="E11" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1336,13 +1423,13 @@
         <v>3.2.2.1.</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="14"/>
       <c r="E16" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1392,7 +1479,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
@@ -1427,7 +1514,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="42" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
@@ -1462,7 +1549,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="42" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
@@ -1491,268 +1578,263 @@
     </row>
     <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="14"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="24"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="21"/>
     </row>
     <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="14"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="21"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="14"/>
-      <c r="E23" s="14" t="str">
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="21"/>
+    </row>
+    <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="14"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="24"/>
+    </row>
+    <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="str">
         <f>$D$13&amp;"2."</f>
         <v>3.2.2.2.</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F26" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="36"/>
+      <c r="E27" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="36"/>
+      <c r="E28" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="36"/>
-      <c r="E24" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="36"/>
-      <c r="E25" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="36"/>
-      <c r="E26" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="27"/>
-    </row>
-    <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="E28" s="44">
-        <v>1</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="21"/>
-    </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="21"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="21"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="27"/>
     </row>
     <row r="31" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="23"/>
-      <c r="AE31" s="23"/>
-      <c r="AF31" s="23"/>
-      <c r="AG31" s="23"/>
-      <c r="AH31" s="24"/>
+      <c r="E31" s="44">
+        <v>1</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="21"/>
     </row>
     <row r="32" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
-      <c r="E32" s="44">
-        <v>2</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
@@ -1783,227 +1865,315 @@
     <row r="33" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="33"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="21"/>
     </row>
     <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
-      <c r="E34" s="47">
-        <v>3</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="35"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="24"/>
     </row>
     <row r="35" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="33"/>
+      <c r="E35" s="44">
+        <v>2</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="21"/>
     </row>
     <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="33"/>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
+      <c r="E37" s="47">
+        <v>3</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="35"/>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
-      <c r="D38" s="14" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>3.2.3.</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="20"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="33"/>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
-      <c r="E39" s="14" t="str">
-        <f>$D$38&amp;"1."</f>
-        <v>3.2.3.1.</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
-      <c r="E40" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="29"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
     </row>
     <row r="41" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
+      <c r="D41" s="14" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>3.2.3.</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
     </row>
     <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="E42" s="14" t="str">
-        <f>$D$38&amp;"2."</f>
-        <v>3.2.3.2.</v>
+        <f>$D$41&amp;"1."</f>
+        <v>3.2.3.1.</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
-      <c r="E43" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="E43" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
@@ -2012,10 +2182,29 @@
     <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
-    </row>
-    <row r="46" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E45" s="14" t="str">
+        <f>$D$41&amp;"2."</f>
+        <v>3.2.3.2.</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="E46" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+    </row>
+    <row r="48" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+    </row>
     <row r="49" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2444,6 +2633,9 @@
     <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="476" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -2461,5 +2653,8 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="40" max="34" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E972E5-8325-4EDB-94E8-362B69EDDB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D061F-DBBD-4F55-998B-DDA152A3192B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,7 +1217,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI479"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D061F-DBBD-4F55-998B-DDA152A3192B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9EF68-E40E-4103-9CBF-9D6738127B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -309,16 +309,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchでは、画面オンライン実行制御基盤と常駐起動バッチ実行制御基盤を組み合わせることで非同期処理方式を実現できるので、</t>
-    <rPh sb="39" eb="40">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本システムでもこの方法を採用する。</t>
     <rPh sb="0" eb="1">
       <t>ホン</t>
@@ -431,6 +421,35 @@
     <rPh sb="45" eb="46">
       <t>ノゾ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchでは、画面オンライン処理方式と常駐バッチ処理方式を組み合わせることで非同期処理方式を実現できるので、</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンライン</t>
+  </si>
+  <si>
+    <t>オンライン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1478,7 +1497,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
@@ -1513,7 +1532,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
@@ -1548,7 +1567,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
@@ -1616,7 +1635,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
@@ -1651,7 +1670,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
@@ -1686,7 +1705,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
@@ -1729,13 +1748,13 @@
     <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="36"/>
       <c r="E27" s="18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="36"/>
       <c r="E28" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1829,7 +1848,9 @@
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="E32" s="44"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="19" t="s">
@@ -2049,7 +2070,9 @@
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
+      <c r="F38" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
       <c r="I38" s="31"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9EF68-E40E-4103-9CBF-9D6738127B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F104E9-4173-4749-BDEE-36671F188FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,10 +230,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ディレード予約処理、または、結果参照処理でエラーが発生した場合の対応方針は、【3.1.10.エラー処理】を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>常駐バッチ処理でエラーが発生した場合の対応方針は、【4.2.5.エラー処理】を参照。</t>
     <rPh sb="0" eb="2">
       <t>ジョウチュウ</t>
@@ -450,6 +446,10 @@
   </si>
   <si>
     <t>オンライン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディレード予約処理、または、結果参照処理でエラーが発生した場合の対応方針は、【3.1.9.エラー処理】を参照。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1410,13 +1410,13 @@
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="14"/>
       <c r="E10" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="14"/>
       <c r="E11" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1441,13 +1441,13 @@
         <v>3.2.2.1.</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="14"/>
       <c r="E16" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1497,7 +1497,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
@@ -1532,7 +1532,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
@@ -1567,7 +1567,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
@@ -1635,7 +1635,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
@@ -1670,7 +1670,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
@@ -1705,7 +1705,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
@@ -1742,19 +1742,19 @@
         <v>3.2.2.2.</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="36"/>
       <c r="E27" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="36"/>
       <c r="E28" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1849,7 +1849,7 @@
       <c r="B32" s="30"/>
       <c r="E32" s="44"/>
       <c r="F32" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -2071,7 +2071,7 @@
       <c r="B38" s="30"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -2193,7 +2193,7 @@
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="E43" s="37" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F43" s="29"/>
     </row>
@@ -2216,7 +2216,7 @@
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="E46" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F104E9-4173-4749-BDEE-36671F188FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4A3CD3-B47B-48D4-BA9A-671353F7D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="3.2.非同期処理方式" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$17:$Q$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$18:$Q$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -226,10 +226,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面から常駐バッチが実行した業務処理の結果を参照する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>常駐バッチ処理でエラーが発生した場合の対応方針は、【4.2.5.エラー処理】を参照。</t>
     <rPh sb="0" eb="2">
       <t>ジョウチュウ</t>
@@ -443,13 +439,72 @@
   </si>
   <si>
     <t>オンライン</t>
-  </si>
-  <si>
-    <t>オンライン</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ディレード予約処理、または、結果参照処理でエラーが発生した場合の対応方針は、【3.1.9.エラー処理】を参照。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※本システムでは非同期処理をメール送信でのみ使用するため、結果確認のための画面は作成しない。</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>ヒドウキショリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ケッカカクニン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バックグラウンドで実行された処理の結果を確認する必要がある場合は、処理結果を確認できる画面を用意するなどの方法がある。</t>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ショリケッカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ホウホウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -678,7 +733,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,12 +836,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -820,9 +869,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -887,6 +933,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1254,43 +1303,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="50"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="56"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="53"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="47"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1299,43 +1348,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="62"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="59"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="65"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="62"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="50"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="47"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1344,39 +1393,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="68"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="65"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="50"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="47"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1410,154 +1459,125 @@
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="14"/>
       <c r="E10" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="14"/>
       <c r="E11" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="14"/>
+      <c r="E12" s="18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="14" t="str">
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="14" t="str">
         <f>$C$7&amp;"2."</f>
         <v>3.2.2.</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="14"/>
-      <c r="E15" s="14" t="str">
-        <f>$D$13&amp;"1."</f>
-        <v>3.2.2.1.</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="14"/>
-      <c r="E16" s="20" t="s">
-        <v>35</v>
+      <c r="E16" s="14" t="str">
+        <f>$D$14&amp;"1."</f>
+        <v>3.2.2.1.</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="14"/>
-      <c r="E17" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="27"/>
+      <c r="E17" s="20" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="17"/>
+      <c r="E18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="27"/>
     </row>
     <row r="19" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="14"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="21"/>
+      <c r="E19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="17"/>
     </row>
     <row r="20" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="14"/>
@@ -1566,15 +1586,15 @@
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
+      <c r="J20" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="20"/>
@@ -1601,13 +1621,15 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
+      <c r="J21" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
@@ -1634,15 +1656,13 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
-      <c r="J22" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
@@ -1669,15 +1689,15 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
+      <c r="J23" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
       <c r="S23" s="20"/>
@@ -1699,162 +1719,159 @@
     </row>
     <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="14"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="24"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="21"/>
     </row>
     <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="14"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="24"/>
     </row>
     <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="14"/>
-      <c r="E26" s="14" t="str">
-        <f>$D$13&amp;"2."</f>
+    </row>
+    <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="str">
+        <f>$D$14&amp;"2."</f>
         <v>3.2.2.2.</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="36"/>
-      <c r="E27" s="18" t="s">
-        <v>45</v>
+      <c r="F27" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="36"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="18" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="36"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="34"/>
+      <c r="E30" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="27"/>
     </row>
     <row r="31" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
-      <c r="E31" s="44">
-        <v>1</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="20"/>
-      <c r="AH31" s="21"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="27"/>
     </row>
     <row r="32" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
-      <c r="E32" s="44"/>
+      <c r="E32" s="42">
+        <v>1</v>
+      </c>
       <c r="F32" s="19" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
@@ -1885,12 +1902,14 @@
     <row r="33" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="19"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
@@ -1921,190 +1940,187 @@
     <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="24"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="21"/>
     </row>
     <row r="35" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
-      <c r="E35" s="44">
-        <v>2</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
-      <c r="AH35" s="21"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="24"/>
     </row>
     <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="33"/>
+      <c r="E36" s="42">
+        <v>2</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="21"/>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
-      <c r="E37" s="47">
-        <v>3</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="35"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="33"/>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="33"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
+      <c r="E39" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
@@ -2192,8 +2208,8 @@
     <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
-      <c r="E43" s="37" t="s">
-        <v>48</v>
+      <c r="E43" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="F43" s="29"/>
     </row>
@@ -2216,7 +2232,7 @@
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="E46" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4A3CD3-B47B-48D4-BA9A-671353F7D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36466D21-B4F9-4F7C-8686-CE53BEEA3346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,11 +12,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$18:$Q$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$47</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$47</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$47</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$47</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -189,13 +189,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>常駐バッチ</t>
     <rPh sb="0" eb="2">
       <t>ジョウチュウ</t>
@@ -301,19 +294,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムでもこの方法を採用する。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メール送信には以下のような特性がある。</t>
     <rPh sb="3" eb="5">
       <t>ソウシン</t>
@@ -416,32 +396,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchでは、画面オンライン処理方式と常駐バッチ処理方式を組み合わせることで非同期処理方式を実現できるので、</t>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>ショリホウシキ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オンライン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ディレード予約処理、または、結果参照処理でエラーが発生した場合の対応方針は、【3.1.9.エラー処理】を参照。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -504,6 +458,38 @@
     </rPh>
     <rPh sb="53" eb="55">
       <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、画面処理と常駐バッチを組み合わせて非同期処理方式を実現する。</t>
+    <rPh sb="7" eb="11">
+      <t>ガメンショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="31">
+      <t>ヒドウキショリホウシキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面処理</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -733,7 +719,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,6 +855,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -935,8 +924,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1287,7 +1276,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI479"/>
+  <dimension ref="A1:AI478"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1303,43 +1292,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="50"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="54"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="47"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="48"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1348,43 +1337,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="59"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="63"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="47"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="48"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1393,39 +1382,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="65"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="66"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="47"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="48"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1459,19 +1448,19 @@
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="14"/>
       <c r="E10" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="14"/>
       <c r="E11" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="14"/>
       <c r="E12" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1496,13 +1485,13 @@
         <v>3.2.2.1.</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="14"/>
       <c r="E17" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1552,7 +1541,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
@@ -1587,7 +1576,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
@@ -1622,7 +1611,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
@@ -1690,7 +1679,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
@@ -1725,7 +1714,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
@@ -1760,7 +1749,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
@@ -1797,77 +1786,107 @@
         <v>3.2.2.2.</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="34"/>
-      <c r="E28" s="18" t="s">
-        <v>44</v>
+      <c r="D28" s="14"/>
+      <c r="E28" s="68" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="34"/>
       <c r="E29" s="18" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="34"/>
-      <c r="E30" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="27"/>
     </row>
     <row r="31" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="25" t="s">
+      <c r="E31" s="42">
+        <v>1</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="27"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="21"/>
     </row>
     <row r="32" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
-      <c r="E32" s="42">
-        <v>1</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="19" t="s">
@@ -1903,9 +1922,7 @@
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="19" t="s">
-        <v>45</v>
-      </c>
+      <c r="F33" s="19"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="19" t="s">
@@ -1940,194 +1957,196 @@
     <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="21"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="24"/>
     </row>
     <row r="35" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="24"/>
+      <c r="E35" s="42">
+        <v>2</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="21"/>
     </row>
     <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
-      <c r="E36" s="42">
-        <v>2</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="21"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="33"/>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="33"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="28"/>
+      <c r="E38" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
-      <c r="E39" s="18" t="s">
-        <v>47</v>
-      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="D40" s="14" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>3.2.3.</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
@@ -2159,90 +2178,53 @@
     <row r="41" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
-      <c r="D41" s="14" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>3.2.3.</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="20"/>
-      <c r="AH41" s="20"/>
+      <c r="E41" s="14" t="str">
+        <f>$D$40&amp;"1."</f>
+        <v>3.2.3.1.</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
-      <c r="E42" s="14" t="str">
-        <f>$D$41&amp;"1."</f>
-        <v>3.2.3.1.</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="E42" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
-      <c r="E43" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
+      <c r="E44" s="14" t="str">
+        <f>$D$40&amp;"2."</f>
+        <v>3.2.3.2.</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
-      <c r="E45" s="14" t="str">
-        <f>$D$41&amp;"2."</f>
-        <v>3.2.3.2.</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>19</v>
+      <c r="E45" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
-      <c r="E46" s="18" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
     </row>
-    <row r="48" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-    </row>
+    <row r="48" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2673,7 +2655,6 @@
     <row r="476" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="477" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="478" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -2692,7 +2673,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="40" max="34" man="1"/>
+    <brk id="39" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36466D21-B4F9-4F7C-8686-CE53BEEA3346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F13DD8-C584-4419-847F-783E1F47D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,11 +12,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$18:$Q$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$47</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$47</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$47</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$47</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -397,31 +397,6 @@
   </si>
   <si>
     <t>ディレード予約処理、または、結果参照処理でエラーが発生した場合の対応方針は、【3.1.9.エラー処理】を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※本システムでは非同期処理をメール送信でのみ使用するため、結果確認のための画面は作成しない。</t>
-    <rPh sb="1" eb="2">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="8" eb="13">
-      <t>ヒドウキショリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="33">
-      <t>ケッカカクニン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -858,6 +833,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -923,9 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1276,7 +1251,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI478"/>
+  <dimension ref="A1:AI476"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1292,43 +1267,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="55"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="48"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1337,43 +1312,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="64"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1382,39 +1357,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="66"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="67"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="48"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1460,7 +1435,7 @@
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="14"/>
       <c r="E12" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1791,8 +1766,8 @@
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="14"/>
-      <c r="E28" s="68" t="s">
-        <v>45</v>
+      <c r="E28" s="46" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1849,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -2099,131 +2074,92 @@
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
+      <c r="D38" s="14" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>3.2.3.</v>
+      </c>
       <c r="E38" s="18" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20"/>
-      <c r="AH39" s="20"/>
+      <c r="E39" s="14" t="str">
+        <f>$D$38&amp;"1."</f>
+        <v>3.2.3.1.</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
-      <c r="D40" s="14" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>3.2.3.</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="20"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="20"/>
-      <c r="AH40" s="20"/>
+      <c r="E40" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
-      <c r="E41" s="14" t="str">
-        <f>$D$40&amp;"1."</f>
-        <v>3.2.3.1.</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
-      <c r="E42" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="29"/>
+      <c r="E42" s="14" t="str">
+        <f>$D$38&amp;"2."</f>
+        <v>3.2.3.2.</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
+      <c r="E43" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
-      <c r="E44" s="14" t="str">
-        <f>$D$40&amp;"2."</f>
-        <v>3.2.3.2.</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
-      <c r="E45" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-    </row>
-    <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-    </row>
+    </row>
+    <row r="46" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2653,8 +2589,6 @@
     <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="476" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -2672,8 +2606,5 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="39" max="34" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F13DD8-C584-4419-847F-783E1F47D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E98E98-3B6A-41CB-8BB4-3540418929AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,10 +396,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ディレード予約処理、または、結果参照処理でエラーが発生した場合の対応方針は、【3.1.9.エラー処理】を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>バックグラウンドで実行された処理の結果を確認する必要がある場合は、処理結果を確認できる画面を用意するなどの方法がある。</t>
     <rPh sb="9" eb="11">
       <t>ジッコウ</t>
@@ -466,6 +462,10 @@
     <rPh sb="2" eb="4">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディレード予約処理、または、結果参照処理でエラーが発生した場合の対応方針は、【3.1.8.エラー処理】を参照。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1435,7 +1435,7 @@
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="14"/>
       <c r="E12" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1767,7 +1767,7 @@
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="14"/>
       <c r="E28" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -2124,7 +2124,7 @@
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="E40" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F40" s="29"/>
     </row>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA7489C-9F1B-45CC-B609-F8F571F75950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E98E98-3B6A-41CB-8BB4-3540418929AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="3.2.非同期処理方式" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$13:$Q$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$42</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$18:$Q$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -116,20 +116,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下記機能の場合に、非同期処理方式を選択する。</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一定時間分をまとめて（バックグラウンドで実行される）処理する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メール送信</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -188,25 +174,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・メール送信要求を出すアプリケーションで、メール送信を業務トランザクションに含めることができる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・メールサーバやネットワークの障害によりメール送信が失敗しても、アプリケーションの処理に影響を与えない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>具体的な処理の流れを以下で説明する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchでは、画面オンライン実行制御基盤と常駐起動バッチ実行制御基盤を組み合わせることで非同期処理方式を実現できる。</t>
-    <rPh sb="39" eb="40">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ア</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -221,13 +189,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>常駐バッチ</t>
     <rPh sb="0" eb="2">
       <t>ジョウチュウ</t>
@@ -258,14 +219,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面から常駐バッチが実行した業務処理の結果を参照する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ディレード予約処理、または、結果参照処理でエラーが発生した場合の対応方針は、【3.1.10.エラー処理】を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>常駐バッチ処理でエラーが発生した場合の対応方針は、【4.2.5.エラー処理】を参照。</t>
     <rPh sb="0" eb="2">
       <t>ジョウチュウ</t>
@@ -294,14 +247,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以下2つのメリットがあるため。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>非同期処理（画面・ディレード処理又はオンラインディレード処理）では、端末から要求が発生してもすぐには処理せず、一定量あるいは</t>
+    <t>非同期処理（画面・ディレード処理又はオンラインディレード処理）は、端末から要求が発生してもすぐには処理せず、一定量あるいは</t>
     <rPh sb="3" eb="5">
       <t>ショリ</t>
     </rPh>
@@ -317,6 +263,209 @@
     <rPh sb="28" eb="30">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムにおける非同期処理適用対象</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、下記機能で非同期処理方式を選択する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでの方針</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一定時間分をまとめて（バックグラウンドで実行する）処理する方式である。</t>
+    <rPh sb="29" eb="31">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メール送信には以下のような特性がある。</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・メール送信のタイミングには遅延が許容される</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期処理方式ではメール送信を必要とする機能と実際のメール送信のトランザクションが分離されるため、</t>
+    <rPh sb="0" eb="7">
+      <t>ヒドウキショリホウシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記特性に良く適合する。</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウキトクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テキゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>したがって、メール送信には非同期処理方式を採用する。</t>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="20">
+      <t>ヒドウキショリホウシキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・メールを送信する必要がある機能そのものは、メール送信の失敗に影響されないようにすることが望ましい</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バックグラウンドで実行された処理の結果を確認する必要がある場合は、処理結果を確認できる画面を用意するなどの方法がある。</t>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ショリケッカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、画面処理と常駐バッチを組み合わせて非同期処理方式を実現する。</t>
+    <rPh sb="7" eb="11">
+      <t>ガメンショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="31">
+      <t>ヒドウキショリホウシキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面処理</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディレード予約処理、または、結果参照処理でエラーが発生した場合の対応方針は、【3.1.8.エラー処理】を参照。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -545,7 +694,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,12 +797,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -687,8 +830,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1103,10 +1249,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI472"/>
+  <dimension ref="A1:AI476"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1122,43 +1267,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="56"/>
+      <c r="R1" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="55"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1167,43 +1312,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="62"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="65"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="64"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="50"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1212,39 +1357,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="68"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="67"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="50"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1272,293 +1417,286 @@
         <v>3.2.1.</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="14"/>
       <c r="E10" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="14"/>
       <c r="E11" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="14"/>
-      <c r="E12" s="20" t="s">
-        <v>14</v>
+      <c r="E12" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="14"/>
-      <c r="E13" s="25" t="s">
+    </row>
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="14" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>3.2.2.</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="27"/>
-    </row>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="14"/>
-      <c r="E14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="17"/>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="14"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="21"/>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="14"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="21"/>
+      <c r="E16" s="14" t="str">
+        <f>$D$14&amp;"1."</f>
+        <v>3.2.2.1.</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="14"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="24"/>
+      <c r="E17" s="20" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="14"/>
+      <c r="E18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="27"/>
     </row>
     <row r="19" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="17"/>
     </row>
     <row r="20" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="14" t="str">
-        <f>$C$7&amp;"2."</f>
-        <v>3.2.2.</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="21"/>
     </row>
     <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="36"/>
-      <c r="E21" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="21"/>
     </row>
     <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="36"/>
-      <c r="E22" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="21"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="27"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="21"/>
     </row>
     <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="E24" s="44">
-        <v>1</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
@@ -1579,271 +1717,192 @@
       <c r="AH24" s="21"/>
     </row>
     <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="21"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="24"/>
     </row>
     <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="19" t="s">
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="str">
+        <f>$D$14&amp;"2."</f>
+        <v>3.2.2.2.</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="21"/>
-    </row>
-    <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="24"/>
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="E28" s="44">
-        <v>2</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="21"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="46" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
-      <c r="E30" s="47">
-        <v>3</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="35"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="27"/>
     </row>
     <row r="31" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="33"/>
+      <c r="E31" s="42">
+        <v>1</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="21"/>
     </row>
     <row r="32" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="21"/>
     </row>
     <row r="33" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="I33" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
@@ -1868,99 +1927,237 @@
       <c r="AE33" s="20"/>
       <c r="AF33" s="20"/>
       <c r="AG33" s="20"/>
-      <c r="AH33" s="20"/>
+      <c r="AH33" s="21"/>
     </row>
     <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
-      <c r="D34" s="14" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>3.2.3.</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="24"/>
     </row>
     <row r="35" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
-      <c r="E35" s="14" t="str">
-        <f>$D$34&amp;"1."</f>
-        <v>3.2.3.1.</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="E35" s="42">
+        <v>2</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="21"/>
     </row>
     <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
-      <c r="E36" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="29"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="33"/>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
-      <c r="E38" s="14" t="str">
-        <f>$D$34&amp;"2."</f>
-        <v>3.2.3.2.</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="D38" s="14" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>3.2.3.</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
-      <c r="E39" s="18" t="s">
-        <v>38</v>
+      <c r="E39" s="14" t="str">
+        <f>$D$38&amp;"1."</f>
+        <v>3.2.3.1.</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
+      <c r="E40" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
     </row>
-    <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="E42" s="14" t="str">
+        <f>$D$38&amp;"2."</f>
+        <v>3.2.3.2.</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="E43" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+    </row>
+    <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+    </row>
     <row r="46" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2388,6 +2585,10 @@
     <row r="470" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="471" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="472" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_3画面処理方式_3.2.非同期処理方式.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E98E98-3B6A-41CB-8BB4-3540418929AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.2.非同期処理方式" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$13:$Q$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$J$18:$Q$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$44</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$44</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$44</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$44</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'3.2.非同期処理方式'!$A$1:$AI$45</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -80,38 +92,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面からのリクエストに基づいて、業務処理の遅延実行</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（非同期処理）を予約する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面から遅延実行（非同期処理）の結果を参照する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務処理の実行結果待ちである旨を表示する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実行結果に基づいて連携DBが更新される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理結果を専用画面またはメッセージ欄に表示する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理内容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理結果</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理方式</t>
     <rPh sb="0" eb="3">
       <t>ヒドウキ</t>
@@ -129,31 +109,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchは、下記の３階段で一連の非同期処理方式（オンラインと常駐バッチ組み合わせ方式）を採用する。</t>
-    <rPh sb="10" eb="12">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カイダン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イチレン</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ヒドウキ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>サイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理のエラー時対応</t>
     <rPh sb="0" eb="3">
       <t>ヒドウキ</t>
@@ -161,46 +116,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下記機能の場合に、非同期処理方式を選択する。</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>非同期処理（画面・ディレード処理又はオンラインディレード処理）というものは、端末から要求が発生してもすぐには処理せず、一定量あるいは</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>マタ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一定時間分をまとめて（バックグラウンドで実行される）処理する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>手段</t>
-    <rPh sb="0" eb="2">
-      <t>シュダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メール送信</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -212,26 +127,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>端末の操作で発生するリクエストに基づいて、オンライン処理と常駐バッチ処理を</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>組み合わせ処理方式である。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・オンライン処理の応答性を確保するため、即時処理を行う必要がない処理をバッチ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理に切り出す。（負荷の平準化）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・データをまとめて処理することで、処理のスループットを向上できる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理方式概要</t>
     <rPh sb="0" eb="3">
       <t>ヒドウキ</t>
@@ -239,10 +134,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オンラインと常駐バッチ組み合わせ方式</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>非同期処理方式詳細</t>
     <rPh sb="0" eb="3">
       <t>ヒドウキ</t>
@@ -276,57 +167,312 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ディレード予約処理、または、結果参照処理はエラーが発生する対応方針は、【3.1.10.エラー処理】を参照。</t>
-    <rPh sb="29" eb="31">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ホウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>常駐バッチ処理でエラーが発生した場合、常駐バッチのエラー処理方針【4.2.5.エラー処理】を参照。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ホウシン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（非同期処理）する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>常駐バッチの仕組みにより、予約した業務処理を遅延実行</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="4">
       <t>ヨウケンテイギ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>具体的な処理の流れを以下で説明する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理方式</t>
+    <rPh sb="0" eb="4">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチ</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理内容</t>
+    <rPh sb="0" eb="4">
+      <t>ショリナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面からのリクエストをオンライン処理で受け付け、業務処理の非同期実行を予約する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この時点では業務処理は実行せず、すぐにレスポンスを返却する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このとき画面には、業務処理の非同期実行が予約され、結果は後で確認できる旨を表示する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチの仕組みにより、予約された業務処理を実行する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチ処理でエラーが発生した場合の対応方針は、【4.2.5.エラー処理】を参照。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期処理（画面・ディレード処理又はオンラインディレード処理）は、端末から要求が発生してもすぐには処理せず、一定量あるいは</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムにおける非同期処理適用対象</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、下記機能で非同期処理方式を選択する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでの方針</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一定時間分をまとめて（バックグラウンドで実行する）処理する方式である。</t>
+    <rPh sb="29" eb="31">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メール送信には以下のような特性がある。</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・メール送信のタイミングには遅延が許容される</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期処理方式ではメール送信を必要とする機能と実際のメール送信のトランザクションが分離されるため、</t>
+    <rPh sb="0" eb="7">
+      <t>ヒドウキショリホウシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記特性に良く適合する。</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウキトクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テキゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>したがって、メール送信には非同期処理方式を採用する。</t>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="20">
+      <t>ヒドウキショリホウシキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・メールを送信する必要がある機能そのものは、メール送信の失敗に影響されないようにすることが望ましい</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バックグラウンドで実行された処理の結果を確認する必要がある場合は、処理結果を確認できる画面を用意するなどの方法がある。</t>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ショリケッカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、画面処理と常駐バッチを組み合わせて非同期処理方式を実現する。</t>
+    <rPh sb="7" eb="11">
+      <t>ガメンショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="31">
+      <t>ヒドウキショリホウシキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面処理</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディレード予約処理、または、結果参照処理でエラーが発生した場合の対応方針は、【3.1.8.エラー処理】を参照。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -548,7 +694,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,47 +797,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -762,9 +905,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -777,12 +920,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -824,7 +970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,9 +1003,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -892,6 +1055,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1067,12 +1247,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI475"/>
+  <dimension ref="A1:AI476"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1088,43 +1267,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="56"/>
+      <c r="R1" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="55"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1133,43 +1312,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="62"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="65"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="64"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="50"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1178,44 +1357,44 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="68"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="67"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="50"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>9</v>
@@ -1228,7 +1407,7 @@
         <v>3.2.</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1238,819 +1417,747 @@
         <v>3.2.1.</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="14"/>
       <c r="E10" s="18" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="14"/>
       <c r="E11" s="18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="14"/>
-      <c r="E12" s="20" t="s">
-        <v>23</v>
+      <c r="E12" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="14"/>
-      <c r="E13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="27"/>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="14"/>
-      <c r="E14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="17"/>
+      <c r="D14" s="14" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>3.2.2.</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="14"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="21"/>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="14"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="21"/>
+      <c r="E16" s="14" t="str">
+        <f>$D$14&amp;"1."</f>
+        <v>3.2.2.1.</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="14"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="21"/>
+      <c r="E17" s="20" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="14"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="21"/>
+      <c r="E18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="27"/>
     </row>
     <row r="19" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="14"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="21"/>
+      <c r="E19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="17"/>
     </row>
     <row r="20" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="14"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="24"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="21"/>
     </row>
     <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="14"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="21"/>
     </row>
     <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="14"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="21"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="14" t="str">
-        <f>$C$7&amp;"2."</f>
-        <v>3.2.2.</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="21"/>
     </row>
     <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="36"/>
-      <c r="E24" s="18" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="21"/>
+    </row>
+    <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="14"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="24"/>
+    </row>
+    <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="str">
+        <f>$D$14&amp;"2."</f>
+        <v>3.2.2.2.</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="14"/>
+      <c r="E28" s="46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="34"/>
+      <c r="E29" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="27"/>
-    </row>
-    <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="E26" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="21"/>
-    </row>
-    <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="E27" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="21"/>
-    </row>
-    <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="24"/>
-    </row>
-    <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="E29" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="21"/>
     </row>
     <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
-      <c r="E30" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="21"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="27"/>
     </row>
     <row r="31" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="33"/>
+      <c r="E31" s="42">
+        <v>1</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="21"/>
     </row>
     <row r="32" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
-      <c r="E32" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="35"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="21"/>
     </row>
     <row r="33" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="35"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="21"/>
     </row>
     <row r="34" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="33"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="24"/>
     </row>
     <row r="35" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
+      <c r="E35" s="42">
+        <v>2</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="21"/>
     </row>
     <row r="36" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="33"/>
     </row>
     <row r="37" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
-      <c r="D37" s="14" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>3.2.3.</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
     </row>
     <row r="38" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
-      <c r="E38" s="14" t="str">
-        <f>$D$37&amp;"1."</f>
-        <v>3.2.3.1.</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="D38" s="14" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>3.2.3.</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
     </row>
     <row r="39" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
-      <c r="E39" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="29"/>
+      <c r="E39" s="14" t="str">
+        <f>$D$38&amp;"1."</f>
+        <v>3.2.3.1.</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
+      <c r="E40" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
-      <c r="E41" s="14" t="str">
-        <f>$D$37&amp;"2."</f>
-        <v>3.2.3.2.</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="42" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
-      <c r="E42" s="18" t="s">
-        <v>40</v>
+      <c r="E42" s="14" t="str">
+        <f>$D$38&amp;"2."</f>
+        <v>3.2.3.2.</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
+      <c r="E43" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
     </row>
-    <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+    </row>
     <row r="46" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2481,9 +2588,9 @@
     <row r="473" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J14:P20"/>
+  <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
